--- a/library_verificaton/GL.xlsx
+++ b/library_verificaton/GL.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="12">
   <si>
     <t>User</t>
   </si>
@@ -50,11 +50,18 @@
   <si>
     <t>GL</t>
   </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>YMK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +139,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,22 +460,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -474,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -491,13 +519,13 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>1234</v>
+        <v>124</v>
       </c>
       <c r="G2" s="7">
-        <v>43639.828940648149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43639.8287522338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -508,42 +536,42 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>369</v>
+        <v>145</v>
       </c>
       <c r="G3" s="8">
-        <v>43639.828824502314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43639.823273483795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="G4" s="9">
-        <v>43639.8287522338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43640.509613993054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -560,39 +588,504 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G5" s="10">
-        <v>43639.823273483795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43639.823244421299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" s="11">
-        <v>43639.823244421299</v>
+        <v>43640.508398680555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>159</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>253</v>
+      </c>
+      <c r="G7" s="12">
+        <v>43640.508576562497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>129</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>254</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43640.509596597221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>159</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>259</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43640.50838295139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>333</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>369</v>
+      </c>
+      <c r="G10" s="15">
+        <v>43639.828824502314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>333</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1234</v>
+      </c>
+      <c r="G11" s="16">
+        <v>43639.828940648149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>125</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1254</v>
+      </c>
+      <c r="G12" s="17">
+        <v>43640.509418541667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>125</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1258</v>
+      </c>
+      <c r="G13" s="18">
+        <v>43640.509404861114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>159</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1569</v>
+      </c>
+      <c r="G14" s="19">
+        <v>43640.50833769676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>159</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2014</v>
+      </c>
+      <c r="G15" s="20">
+        <v>43640.508601979163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>125</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2569</v>
+      </c>
+      <c r="G16" s="21">
+        <v>43640.509389386571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>125</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2589</v>
+      </c>
+      <c r="G17" s="22">
+        <v>43640.509292835646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>21818</v>
+      </c>
+      <c r="G18" s="23">
+        <v>43640.734466793983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>21820</v>
+      </c>
+      <c r="G19" s="24">
+        <v>43640.734374328706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>21823</v>
+      </c>
+      <c r="G20" s="25">
+        <v>43640.734336956019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>21906</v>
+      </c>
+      <c r="G21" s="26">
+        <v>43640.734571550929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>21913</v>
+      </c>
+      <c r="G22" s="27">
+        <v>43640.73422150463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>24863</v>
+      </c>
+      <c r="G23" s="28">
+        <v>43640.734275555558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>34632</v>
+      </c>
+      <c r="G24" s="29">
+        <v>43640.733970312504</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G25" t="n" s="30">
+        <v>43640.73939539352</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="G26" t="n" s="31">
+        <v>43640.73971722222</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G6">
-      <sortCondition descending="1" ref="G1"/>
+  <autoFilter ref="A1:G24">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="16"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A18:G24">
+      <sortCondition ref="F1:F24"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
